--- a/medicine/Sexualité et sexologie/Prostitution_à_l'île_Christmas/Prostitution_à_l'île_Christmas.xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_à_l'île_Christmas/Prostitution_à_l'île_Christmas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prostitution_%C3%A0_l%27%C3%AEle_Christmas</t>
+          <t>Prostitution_à_l'île_Christmas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prostitution à l'île Christmas est la place qu'occupe la prostitution sur l'île Christmas, principalement dans la population féminine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prostitution_%C3%A0_l%27%C3%AEle_Christmas</t>
+          <t>Prostitution_à_l'île_Christmas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'île Christmas était, comme les îles Cocos, une colonie britannique et une partie de la colonie de Singapour. Après le transfert de souveraineté à l'Australie en 1958, la loi coloniale de Singapour est restée en vigueur sur l'île jusqu'en 1992[1]. Le Territories Law Reform Act de 1992 a rendu la loi fédérale australienne et les lois des États d'Australie occidentale applicables à l'île Christmas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'île Christmas était, comme les îles Cocos, une colonie britannique et une partie de la colonie de Singapour. Après le transfert de souveraineté à l'Australie en 1958, la loi coloniale de Singapour est restée en vigueur sur l'île jusqu'en 1992. Le Territories Law Reform Act de 1992 a rendu la loi fédérale australienne et les lois des États d'Australie occidentale applicables à l'île Christmas.
 De ce fait, la situation légale actuelle correspond à celle de l'Australie.
 </t>
         </is>
